--- a/variant_26/Задание 18/18.xlsx
+++ b/variant_26/Задание 18/18.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Admin\Desktop\Варианты\12 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -168,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -345,23 +340,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
         <v>51</v>
       </c>
@@ -396,7 +391,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -431,7 +426,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>63</v>
       </c>
@@ -466,7 +461,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -501,7 +496,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>99</v>
       </c>
@@ -536,7 +531,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -571,7 +566,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -606,7 +601,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -641,7 +636,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -676,7 +671,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -711,7 +706,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -726,7 +721,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -741,20 +736,431 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <f>A1</f>
+        <v>51</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B1+A13</f>
+        <v>72</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:J13" si="0">C1+B13</f>
+        <v>165</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>511</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <f>A2+A13</f>
+        <v>108</v>
+      </c>
+      <c r="B14">
+        <f>B2+MIN(B13,A14)</f>
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:J14" si="1">C2+MIN(C13,B14)</f>
+        <v>212</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <f t="shared" ref="A15:A22" si="2">A3+A14</f>
+        <v>171</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B22" si="3">B3+MIN(B14,A15)</f>
+        <v>131</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C22" si="4">C3+MIN(C14,B15)</f>
+        <v>162</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D22" si="5">D3+MIN(D14,C15)</f>
+        <v>178</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E22" si="6">E3+MIN(E14,D15)</f>
+        <v>256</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F22" si="7">F3+MIN(F14,E15)</f>
+        <v>344</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G22" si="8">G3+MIN(G14,F15)</f>
+        <v>434</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H22" si="9">H3+MIN(H14,G15)</f>
+        <v>506</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I22" si="10">I3+MIN(I14,H15)</f>
+        <v>538</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:J22" si="11">J3+MIN(J14,I15)</f>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>349</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>586</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="11"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>326</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>383</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>287</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>314</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>352</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>406</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>434</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>393</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>395</v>
+      </c>
+      <c r="L18">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>313</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>385</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>485</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>445</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>446</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="11"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>383</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>454</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>534</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>476</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>471</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>403</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>393</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>444</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>460</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>524</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>466</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>423</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>453</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>473</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="10"/>
+        <v>513</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>502</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
